--- a/deliverable-docs/79_wil1_final/79_wil1_final-resources/03_project-planning.xlsx
+++ b/deliverable-docs/79_wil1_final/79_wil1_final-resources/03_project-planning.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileSharing readOnlyRecommended="1"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Tang\Documents\Academic_UN\Y3 Summer\COMP 4981\COMP 4981 Repositories\FYP-Code\deliverable-docs\79_wil1_prog\79_wil1_prog-resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/896b55392444db65/Documents/academics_ust/y3t4/comp4981/comp4981_repositories/FYP-Code/deliverable-docs/79_wil1_final/79_wil1_final-resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772C2307-0B8B-414B-A06C-B90C3A999916}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{772C2307-0B8B-414B-A06C-B90C3A999916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CF51026-19CC-4C73-9D12-1704DD3F0544}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1590" windowWidth="20520" windowHeight="12930" xr2:uid="{D91BC8B3-54B0-4A17-B6B5-C0105816430F}"/>
+    <workbookView xWindow="1770" yWindow="4215" windowWidth="17940" windowHeight="10215" xr2:uid="{D91BC8B3-54B0-4A17-B6B5-C0105816430F}"/>
   </bookViews>
   <sheets>
     <sheet name="Distribution of Work" sheetId="1" r:id="rId1"/>
@@ -583,12 +584,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="83.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -614,7 +615,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -622,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -630,7 +631,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -638,7 +639,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
@@ -646,7 +647,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -654,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -662,7 +663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
@@ -670,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
@@ -678,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -687,7 +688,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -695,7 +696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -703,7 +704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -711,7 +712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -719,7 +720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -727,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -735,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -744,7 +745,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -752,7 +753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -760,7 +761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -768,7 +769,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -777,7 +778,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -785,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -793,7 +794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -801,7 +802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,7 +810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -817,7 +818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
@@ -825,10 +826,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -849,12 +850,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -912,7 +913,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -921,27 +922,27 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
@@ -949,27 +950,27 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>35</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -986,7 +987,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
@@ -995,7 +996,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1004,7 +1005,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1014,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1025,7 +1026,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1037,13 +1038,13 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1061,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1069,7 +1070,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
@@ -1078,7 +1079,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1089,7 +1090,7 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1106,7 +1107,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1116,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1124,7 +1125,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1136,7 +1137,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
@@ -1148,7 +1149,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1159,7 +1160,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>11</v>
       </c>
